--- a/data/trans_orig/IP18A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED21864-282E-431D-8C8D-33D9D60B3FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1860B865-77B9-4EF9-A6EC-3BCDBEF2AA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{23C1A303-AEFA-4914-A0AC-03F4BB11DE51}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{423566D9-9A66-4481-9058-0655EE2DF203}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="436">
   <si>
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>35,17%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>37,88%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>64,83%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>70,15%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,120 +362,6 @@
     <t>65,39%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
     <t>35,64%</t>
   </si>
   <si>
@@ -413,6 +413,114 @@
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
   </si>
   <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
     <t>27,86%</t>
   </si>
   <si>
@@ -422,9 +530,6 @@
     <t>33,33%</t>
   </si>
   <si>
-    <t>30,76%</t>
-  </si>
-  <si>
     <t>25,39%</t>
   </si>
   <si>
@@ -446,9 +551,6 @@
     <t>77,09%</t>
   </si>
   <si>
-    <t>69,24%</t>
-  </si>
-  <si>
     <t>74,61%</t>
   </si>
   <si>
@@ -461,52 +563,58 @@
     <t>74,49%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
   </si>
   <si>
     <t>39,15%</t>
@@ -563,114 +671,6 @@
     <t>64,42%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
     <t>34,17%</t>
   </si>
   <si>
@@ -722,6 +722,102 @@
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2015 (Tasa respuesta: 91,02%)</t>
   </si>
   <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
     <t>31,38%</t>
   </si>
   <si>
@@ -776,46 +872,58 @@
     <t>71,24%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
   </si>
   <si>
     <t>36,84%</t>
@@ -866,114 +974,6 @@
     <t>65,93%</t>
   </si>
   <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
     <t>35,11%</t>
   </si>
   <si>
@@ -1031,169 +1031,13 @@
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>57,41%</t>
@@ -1205,22 +1049,22 @@
     <t>90,65%</t>
   </si>
   <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>42,59%</t>
@@ -1232,115 +1076,277 @@
     <t>85,82%</t>
   </si>
   <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915607D3-2290-43B7-A6F3-7F79A168B563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6341A8E8-ACE1-4342-A207-F14448A3598F}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1850,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>63269</v>
+        <v>9414</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1865,10 +1871,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>53525</v>
+        <v>4231</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1880,10 +1886,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>116795</v>
+        <v>13645</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1901,10 +1907,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>116647</v>
+        <v>12772</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1916,10 +1922,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>111828</v>
+        <v>15273</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1931,10 +1937,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>357</v>
+        <v>37</v>
       </c>
       <c r="N5" s="7">
-        <v>228474</v>
+        <v>28045</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1952,10 +1958,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>179916</v>
+        <v>22186</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1967,10 +1973,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>165353</v>
+        <v>19504</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1982,10 +1988,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>539</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>345269</v>
+        <v>41690</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2160,10 +2166,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" s="7">
-        <v>63641</v>
+        <v>63269</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2175,10 +2181,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7">
-        <v>80637</v>
+        <v>53525</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2190,10 +2196,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="N10" s="7">
-        <v>144278</v>
+        <v>116795</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2211,10 +2217,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D11" s="7">
-        <v>117665</v>
+        <v>116647</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2226,10 +2232,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="I11" s="7">
-        <v>111906</v>
+        <v>111828</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2241,10 +2247,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="N11" s="7">
-        <v>229570</v>
+        <v>228474</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2262,10 +2268,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D12" s="7">
-        <v>181306</v>
+        <v>179916</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2277,10 +2283,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="I12" s="7">
-        <v>192543</v>
+        <v>165353</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2292,10 +2298,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="N12" s="7">
-        <v>373848</v>
+        <v>345269</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2321,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>9414</v>
+        <v>47516</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2330,10 +2336,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
-        <v>4231</v>
+        <v>45053</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2345,10 +2351,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="N13" s="7">
-        <v>13645</v>
+        <v>92570</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2366,10 +2372,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="D14" s="7">
-        <v>12772</v>
+        <v>86280</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2381,10 +2387,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I14" s="7">
-        <v>15273</v>
+        <v>79524</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2396,10 +2402,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="N14" s="7">
-        <v>28045</v>
+        <v>165803</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2417,10 +2423,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="D15" s="7">
-        <v>22186</v>
+        <v>133796</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2432,10 +2438,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="I15" s="7">
-        <v>19504</v>
+        <v>124577</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2447,10 +2453,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="N15" s="7">
-        <v>41690</v>
+        <v>258373</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2470,10 +2476,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>47516</v>
+        <v>63641</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2485,10 +2491,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="I16" s="7">
-        <v>45053</v>
+        <v>80637</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2500,10 +2506,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="N16" s="7">
-        <v>92570</v>
+        <v>144278</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2521,10 +2527,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="D17" s="7">
-        <v>86280</v>
+        <v>117665</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2536,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="I17" s="7">
-        <v>79524</v>
+        <v>111906</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2551,10 +2557,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="N17" s="7">
-        <v>165803</v>
+        <v>229570</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2572,10 +2578,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7">
-        <v>133796</v>
+        <v>181306</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2587,10 +2593,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7">
-        <v>124577</v>
+        <v>192543</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2602,10 +2608,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="N18" s="7">
-        <v>258373</v>
+        <v>373848</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2790,7 +2796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B40B34-C8BD-4BEC-BD39-AE919DAD594F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74786DE4-56E6-408D-9E83-8795266BCEE1}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2908,10 +2914,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>58085</v>
+        <v>10620</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>124</v>
@@ -2923,10 +2929,10 @@
         <v>126</v>
       </c>
       <c r="H4" s="7">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>59294</v>
+        <v>4411</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>127</v>
@@ -2935,22 +2941,22 @@
         <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>117379</v>
+        <v>15031</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,49 +2965,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>150422</v>
+        <v>13834</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>133440</v>
+        <v>17092</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
-        <v>425</v>
+        <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>283862</v>
+        <v>30926</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,10 +3016,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>208507</v>
+        <v>24454</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3025,10 +3031,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>192734</v>
+        <v>21503</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3040,10 +3046,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>599</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>401241</v>
+        <v>45957</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3069,13 +3075,13 @@
         <v>44407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -3084,13 +3090,13 @@
         <v>38778</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>117</v>
@@ -3099,13 +3105,13 @@
         <v>83185</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3126,13 @@
         <v>75842</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>98</v>
@@ -3135,13 +3141,13 @@
         <v>70491</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>205</v>
@@ -3150,13 +3156,13 @@
         <v>146333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,49 +3224,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7">
-        <v>79176</v>
+        <v>58085</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I10" s="7">
-        <v>82047</v>
+        <v>59294</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="N10" s="7">
-        <v>161223</v>
+        <v>117379</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,40 +3275,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="D11" s="7">
-        <v>123060</v>
+        <v>150422</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="I11" s="7">
-        <v>120403</v>
+        <v>133440</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>170</v>
       </c>
       <c r="M11" s="7">
-        <v>322</v>
+        <v>425</v>
       </c>
       <c r="N11" s="7">
-        <v>243463</v>
+        <v>283862</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>171</v>
@@ -3320,10 +3326,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="D12" s="7">
-        <v>202236</v>
+        <v>208507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3335,10 +3341,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="I12" s="7">
-        <v>202450</v>
+        <v>192734</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3350,10 +3356,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="N12" s="7">
-        <v>404686</v>
+        <v>401241</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3373,10 +3379,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>10620</v>
+        <v>51104</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>174</v>
@@ -3388,10 +3394,10 @@
         <v>176</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="I13" s="7">
-        <v>4411</v>
+        <v>47810</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>177</v>
@@ -3403,10 +3409,10 @@
         <v>179</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="N13" s="7">
-        <v>15031</v>
+        <v>98914</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>180</v>
@@ -3424,10 +3430,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="D14" s="7">
-        <v>13834</v>
+        <v>105682</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>183</v>
@@ -3439,10 +3445,10 @@
         <v>185</v>
       </c>
       <c r="H14" s="7">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="I14" s="7">
-        <v>17092</v>
+        <v>94253</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>186</v>
@@ -3454,10 +3460,10 @@
         <v>188</v>
       </c>
       <c r="M14" s="7">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="N14" s="7">
-        <v>30926</v>
+        <v>199935</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>189</v>
@@ -3475,10 +3481,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>24454</v>
+        <v>156786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3490,10 +3496,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="I15" s="7">
-        <v>21503</v>
+        <v>142063</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3505,10 +3511,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>45957</v>
+        <v>298849</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3528,10 +3534,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7">
-        <v>51104</v>
+        <v>79176</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>192</v>
@@ -3543,10 +3549,10 @@
         <v>194</v>
       </c>
       <c r="H16" s="7">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="I16" s="7">
-        <v>47810</v>
+        <v>82047</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>195</v>
@@ -3558,10 +3564,10 @@
         <v>197</v>
       </c>
       <c r="M16" s="7">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="N16" s="7">
-        <v>98914</v>
+        <v>161223</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>198</v>
@@ -3579,10 +3585,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D17" s="7">
-        <v>105682</v>
+        <v>123060</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>201</v>
@@ -3594,10 +3600,10 @@
         <v>203</v>
       </c>
       <c r="H17" s="7">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I17" s="7">
-        <v>94253</v>
+        <v>120403</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>204</v>
@@ -3609,10 +3615,10 @@
         <v>206</v>
       </c>
       <c r="M17" s="7">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="N17" s="7">
-        <v>199935</v>
+        <v>243463</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>207</v>
@@ -3630,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="D18" s="7">
-        <v>156786</v>
+        <v>202236</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3645,10 +3651,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="I18" s="7">
-        <v>142063</v>
+        <v>202450</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3660,10 +3666,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>539</v>
       </c>
       <c r="N18" s="7">
-        <v>298849</v>
+        <v>404686</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3722,7 +3728,7 @@
         <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>217</v>
@@ -3776,7 +3782,7 @@
         <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,7 +3854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAA977D-8328-4FD6-BF47-4705F8B59BCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07950020-4F78-45C4-BEB5-7CF07FC0390B}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3966,10 +3972,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>65900</v>
+        <v>10410</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3981,10 +3987,10 @@
         <v>229</v>
       </c>
       <c r="H4" s="7">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>63703</v>
+        <v>11500</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3996,10 +4002,10 @@
         <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>129603</v>
+        <v>21910</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -4017,10 +4023,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>144106</v>
+        <v>15164</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -4032,10 +4038,10 @@
         <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>129615</v>
+        <v>9347</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -4047,10 +4053,10 @@
         <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>416</v>
+        <v>26</v>
       </c>
       <c r="N5" s="7">
-        <v>273721</v>
+        <v>24511</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -4068,10 +4074,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>311</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>210006</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4083,10 +4089,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>193318</v>
+        <v>20847</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4098,10 +4104,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>622</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>403324</v>
+        <v>46421</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4127,7 +4133,7 @@
         <v>36089</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>245</v>
@@ -4142,7 +4148,7 @@
         <v>28016</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>247</v>
@@ -4178,7 +4184,7 @@
         <v>72188</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>252</v>
@@ -4193,7 +4199,7 @@
         <v>75877</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>254</v>
@@ -4276,10 +4282,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10" s="7">
-        <v>68144</v>
+        <v>65900</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>259</v>
@@ -4291,34 +4297,34 @@
         <v>261</v>
       </c>
       <c r="H10" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I10" s="7">
-        <v>75370</v>
+        <v>63703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N10" s="7">
-        <v>143514</v>
+        <v>129603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,49 +4333,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>116819</v>
+        <v>144106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="I11" s="7">
-        <v>117278</v>
+        <v>129615</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
-        <v>320</v>
+        <v>416</v>
       </c>
       <c r="N11" s="7">
-        <v>234097</v>
+        <v>273721</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,10 +4384,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="D12" s="7">
-        <v>184963</v>
+        <v>210006</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4393,10 +4399,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="I12" s="7">
-        <v>192648</v>
+        <v>193318</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4408,10 +4414,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>521</v>
+        <v>622</v>
       </c>
       <c r="N12" s="7">
-        <v>377611</v>
+        <v>403324</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4431,49 +4437,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7">
-        <v>10410</v>
+        <v>55366</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="I13" s="7">
-        <v>11500</v>
+        <v>47532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="N13" s="7">
-        <v>21910</v>
+        <v>102897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,49 +4488,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="D14" s="7">
-        <v>15164</v>
+        <v>87715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="I14" s="7">
-        <v>9347</v>
+        <v>89039</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="N14" s="7">
-        <v>24511</v>
+        <v>176755</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,10 +4539,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>143081</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4548,10 +4554,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="I15" s="7">
-        <v>20847</v>
+        <v>136571</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4563,10 +4569,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>442</v>
       </c>
       <c r="N15" s="7">
-        <v>46421</v>
+        <v>279652</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4586,49 +4592,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7">
-        <v>55366</v>
+        <v>68144</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="I16" s="7">
-        <v>47532</v>
+        <v>75370</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="N16" s="7">
-        <v>102897</v>
+        <v>143514</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,28 +4643,28 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D17" s="7">
-        <v>87715</v>
+        <v>116819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I17" s="7">
-        <v>89039</v>
+        <v>117278</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>306</v>
@@ -4667,10 +4673,10 @@
         <v>307</v>
       </c>
       <c r="M17" s="7">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="N17" s="7">
-        <v>176755</v>
+        <v>234097</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>308</v>
@@ -4688,10 +4694,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="D18" s="7">
-        <v>143081</v>
+        <v>184963</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4703,10 +4709,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="I18" s="7">
-        <v>136571</v>
+        <v>192648</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4718,10 +4724,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>442</v>
+        <v>521</v>
       </c>
       <c r="N18" s="7">
-        <v>279652</v>
+        <v>377611</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4906,7 +4912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E206221C-E974-4359-A443-29E6BE945C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBF9713-C9A7-4E46-AA53-0596B18CB86F}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5024,10 +5030,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>18250</v>
+        <v>1938</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>330</v>
@@ -5039,10 +5045,10 @@
         <v>332</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>9493</v>
+        <v>2620</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>333</v>
@@ -5054,10 +5060,10 @@
         <v>335</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>27743</v>
+        <v>4557</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>336</v>
@@ -5075,10 +5081,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>30368</v>
+        <v>2732</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>339</v>
@@ -5090,10 +5096,10 @@
         <v>341</v>
       </c>
       <c r="H5" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>19602</v>
+        <v>1943</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>342</v>
@@ -5105,10 +5111,10 @@
         <v>344</v>
       </c>
       <c r="M5" s="7">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>49970</v>
+        <v>4676</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>345</v>
@@ -5126,10 +5132,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>48618</v>
+        <v>4670</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5141,10 +5147,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>29095</v>
+        <v>4563</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5156,10 +5162,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>77713</v>
+        <v>9233</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5179,10 +5185,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>2188</v>
+        <v>9380</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>348</v>
@@ -5194,10 +5200,10 @@
         <v>350</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>3202</v>
+        <v>9429</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>351</v>
@@ -5206,22 +5212,22 @@
         <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>5390</v>
+        <v>18808</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,49 +5236,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>13697</v>
+        <v>6505</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2908</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M8" s="7">
         <v>16</v>
       </c>
-      <c r="I8" s="7">
-        <v>9135</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M8" s="7">
-        <v>39</v>
-      </c>
       <c r="N8" s="7">
-        <v>22831</v>
+        <v>9413</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,49 +5340,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>10479</v>
+        <v>38707</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>7707</v>
+        <v>21956</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>18186</v>
+        <v>60663</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,49 +5391,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>16922</v>
+        <v>9911</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>20900</v>
+        <v>7139</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>37822</v>
+        <v>17050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,10 +5442,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>27401</v>
+        <v>48618</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5451,10 +5457,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I12" s="7">
-        <v>28607</v>
+        <v>29095</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5466,10 +5472,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="N12" s="7">
-        <v>56008</v>
+        <v>77713</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5489,49 +5495,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>1302</v>
+        <v>16651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>2620</v>
+        <v>12036</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>3921</v>
+        <v>28687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,49 +5546,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>3368</v>
+        <v>13201</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I14" s="7">
-        <v>1943</v>
+        <v>13285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="N14" s="7">
-        <v>5312</v>
+        <v>26486</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,10 +5597,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>4670</v>
+        <v>29852</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5606,10 +5612,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>4563</v>
+        <v>25321</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5621,10 +5627,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="N15" s="7">
-        <v>9233</v>
+        <v>55173</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5644,49 +5650,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>8781</v>
+        <v>20318</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>9337</v>
+        <v>17761</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N16" s="7">
-        <v>18119</v>
+        <v>38079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,49 +5701,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>21071</v>
+        <v>7083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="H17" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>15984</v>
+        <v>10846</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N17" s="7">
-        <v>37054</v>
+        <v>17929</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,10 +5752,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
-        <v>29852</v>
+        <v>27401</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5761,10 +5767,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I18" s="7">
-        <v>25321</v>
+        <v>28607</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5776,10 +5782,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N18" s="7">
-        <v>55173</v>
+        <v>56008</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5799,49 +5805,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="D19" s="7">
-        <v>41000</v>
+        <v>86993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="I19" s="7">
-        <v>32360</v>
+        <v>63801</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="N19" s="7">
-        <v>73360</v>
+        <v>150794</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,49 +5856,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7">
-        <v>85425</v>
+        <v>39432</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="I20" s="7">
-        <v>67563</v>
+        <v>36122</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="N20" s="7">
-        <v>152988</v>
+        <v>75554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP18A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1860B865-77B9-4EF9-A6EC-3BCDBEF2AA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5986F15E-74AC-44F8-95E1-4B7A0D276247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{423566D9-9A66-4481-9058-0655EE2DF203}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8E43DF2-681D-414B-AC37-CCE55296F13E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -71,64 +71,64 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>42,43%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1177 +137,1201 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
     <t>36,11%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
   </si>
   <si>
     <t>40,59%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
   </si>
   <si>
     <t>38,23%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
     <t>35,17%</t>
   </si>
   <si>
-    <t>29,87%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2015 (Tasa respuesta: 91,02%)</t>
+  </si>
+  <si>
+    <t>59,29%</t>
   </si>
   <si>
     <t>41,47%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>58,53%</t>
   </si>
   <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>30,25%</t>
   </si>
   <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>69,75%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2015 (Tasa respuesta: 91,02%)</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
   </si>
   <si>
     <t>55,78%</t>
   </si>
   <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
   </si>
   <si>
     <t>47,53%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>64,99%</t>
   </si>
   <si>
     <t>51,99%</t>
   </si>
   <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
   </si>
   <si>
     <t>74,15%</t>
   </si>
   <si>
-    <t>85,46%</t>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>67,99%</t>
   </si>
   <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>63,85%</t>
   </si>
   <si>
-    <t>55,27%</t>
+    <t>54,41%</t>
   </si>
   <si>
     <t>71,3%</t>
@@ -1316,37 +1340,10 @@
     <t>66,62%</t>
   </si>
   <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1354,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1453,39 +1450,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1537,7 +1534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1648,13 +1645,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1663,6 +1653,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1727,19 +1724,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6341A8E8-ACE1-4342-A207-F14448A3598F}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6F403E-3EC3-4551-B390-13BE3CF6CB8E}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1856,10 +1873,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>9414</v>
+        <v>12772</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1871,10 +1888,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>4231</v>
+        <v>15273</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1886,10 +1903,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>13645</v>
+        <v>28045</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1907,10 +1924,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>12772</v>
+        <v>9414</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1922,10 +1939,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>15273</v>
+        <v>4231</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1937,10 +1954,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>28045</v>
+        <v>13645</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2011,10 +2028,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="D7" s="7">
-        <v>38572</v>
+        <v>68239</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2026,10 +2043,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="I7" s="7">
-        <v>38984</v>
+        <v>57057</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2041,10 +2058,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="N7" s="7">
-        <v>77556</v>
+        <v>125296</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2062,10 +2079,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7">
-        <v>68239</v>
+        <v>38572</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2077,10 +2094,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="I8" s="7">
-        <v>57057</v>
+        <v>38984</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2092,10 +2109,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="N8" s="7">
-        <v>125296</v>
+        <v>77556</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2166,10 +2183,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="D10" s="7">
-        <v>63269</v>
+        <v>116647</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2181,34 +2198,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="I10" s="7">
-        <v>53525</v>
+        <v>111828</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>357</v>
+      </c>
+      <c r="N10" s="7">
+        <v>228474</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>182</v>
-      </c>
-      <c r="N10" s="7">
-        <v>116795</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,49 +2234,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="D11" s="7">
-        <v>116647</v>
+        <v>63269</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>86</v>
+      </c>
+      <c r="I11" s="7">
+        <v>53525</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>179</v>
-      </c>
-      <c r="I11" s="7">
-        <v>111828</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="7">
+        <v>182</v>
+      </c>
+      <c r="N11" s="7">
+        <v>116795</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>357</v>
-      </c>
-      <c r="N11" s="7">
-        <v>228474</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,55 +2332,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>132</v>
+      </c>
+      <c r="D13" s="7">
+        <v>86280</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
+        <v>129</v>
+      </c>
+      <c r="I13" s="7">
+        <v>79524</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="7">
+        <v>261</v>
+      </c>
+      <c r="N13" s="7">
+        <v>165803</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="7">
-        <v>47516</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="7">
-        <v>78</v>
-      </c>
-      <c r="I13" s="7">
-        <v>45053</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="7">
-        <v>153</v>
-      </c>
-      <c r="N13" s="7">
-        <v>92570</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,49 +2389,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="D14" s="7">
-        <v>86280</v>
+        <v>47516</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>78</v>
+      </c>
+      <c r="I14" s="7">
+        <v>45053</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>129</v>
-      </c>
-      <c r="I14" s="7">
-        <v>79524</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>153</v>
+      </c>
+      <c r="N14" s="7">
+        <v>92570</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>261</v>
-      </c>
-      <c r="N14" s="7">
-        <v>165803</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,55 +2487,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>174</v>
+      </c>
+      <c r="D16" s="7">
+        <v>117665</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="7">
+        <v>145</v>
+      </c>
+      <c r="I16" s="7">
+        <v>111906</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="7">
+        <v>319</v>
+      </c>
+      <c r="N16" s="7">
+        <v>229570</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="7">
-        <v>63641</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="7">
-        <v>107</v>
-      </c>
-      <c r="I16" s="7">
-        <v>80637</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>201</v>
-      </c>
-      <c r="N16" s="7">
-        <v>144278</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,49 +2544,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="D17" s="7">
-        <v>117665</v>
+        <v>63641</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>107</v>
+      </c>
+      <c r="I17" s="7">
+        <v>80637</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>145</v>
-      </c>
-      <c r="I17" s="7">
-        <v>111906</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>201</v>
+      </c>
+      <c r="N17" s="7">
+        <v>144278</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>319</v>
-      </c>
-      <c r="N17" s="7">
-        <v>229570</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,49 +2648,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>336</v>
+        <v>603</v>
       </c>
       <c r="D19" s="7">
-        <v>222412</v>
+        <v>401602</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>557</v>
+      </c>
+      <c r="I19" s="7">
+        <v>375587</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="7">
-        <v>335</v>
-      </c>
-      <c r="I19" s="7">
-        <v>222431</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>1160</v>
+      </c>
+      <c r="N19" s="7">
+        <v>777188</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>671</v>
-      </c>
-      <c r="N19" s="7">
-        <v>444844</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,46 +2699,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>603</v>
+        <v>336</v>
       </c>
       <c r="D20" s="7">
-        <v>401602</v>
+        <v>222412</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>335</v>
+      </c>
+      <c r="I20" s="7">
+        <v>222431</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="7">
-        <v>557</v>
-      </c>
-      <c r="I20" s="7">
-        <v>375587</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="7">
+        <v>671</v>
+      </c>
+      <c r="N20" s="7">
+        <v>444844</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1160</v>
-      </c>
-      <c r="N20" s="7">
-        <v>777188</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>120</v>
@@ -2776,6 +2793,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2796,8 +2818,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74786DE4-56E6-408D-9E83-8795266BCEE1}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BA9752-BE96-42C6-8DE2-0576BFDBB322}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2813,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2914,49 +2936,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>10620</v>
+        <v>13834</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>17092</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4411</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>36</v>
+      </c>
+      <c r="N4" s="7">
+        <v>30926</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="7">
-        <v>16</v>
-      </c>
-      <c r="N4" s="7">
-        <v>15031</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,49 +2987,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10620</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4411</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="7">
         <v>16</v>
       </c>
-      <c r="D5" s="7">
-        <v>13834</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="7">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
-        <v>17092</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="7">
+        <v>15031</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="7">
-        <v>36</v>
-      </c>
-      <c r="N5" s="7">
-        <v>30926</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,49 +3091,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D7" s="7">
-        <v>44407</v>
+        <v>75842</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>98</v>
+      </c>
+      <c r="I7" s="7">
+        <v>70491</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H7" s="7">
-        <v>54</v>
-      </c>
-      <c r="I7" s="7">
-        <v>38778</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>205</v>
+      </c>
+      <c r="N7" s="7">
+        <v>146333</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="7">
-        <v>117</v>
-      </c>
-      <c r="N7" s="7">
-        <v>83185</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,49 +3142,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="D8" s="7">
-        <v>75842</v>
+        <v>44407</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>54</v>
+      </c>
+      <c r="I8" s="7">
+        <v>38778</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H8" s="7">
-        <v>98</v>
-      </c>
-      <c r="I8" s="7">
-        <v>70491</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>117</v>
+      </c>
+      <c r="N8" s="7">
+        <v>83185</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M8" s="7">
-        <v>205</v>
-      </c>
-      <c r="N8" s="7">
-        <v>146333</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,49 +3246,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="D10" s="7">
-        <v>58085</v>
+        <v>150422</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>206</v>
+      </c>
+      <c r="I10" s="7">
+        <v>133440</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="H10" s="7">
-        <v>92</v>
-      </c>
-      <c r="I10" s="7">
-        <v>59294</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>174</v>
+        <v>425</v>
       </c>
       <c r="N10" s="7">
-        <v>117379</v>
+        <v>283862</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,49 +3297,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7">
-        <v>150422</v>
+        <v>58085</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="I11" s="7">
-        <v>133440</v>
+        <v>59294</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
-        <v>425</v>
+        <v>174</v>
       </c>
       <c r="N11" s="7">
-        <v>283862</v>
+        <v>117379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,55 +3395,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="D13" s="7">
-        <v>51104</v>
+        <v>105682</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="I13" s="7">
-        <v>47810</v>
+        <v>94253</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
-        <v>152</v>
+        <v>309</v>
       </c>
       <c r="N13" s="7">
-        <v>98914</v>
+        <v>199935</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,49 +3452,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="D14" s="7">
-        <v>105682</v>
+        <v>51104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="I14" s="7">
-        <v>94253</v>
+        <v>47810</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
-        <v>309</v>
+        <v>152</v>
       </c>
       <c r="N14" s="7">
-        <v>199935</v>
+        <v>98914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,55 +3550,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="D16" s="7">
-        <v>79176</v>
+        <v>123060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="I16" s="7">
-        <v>82047</v>
+        <v>120403</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="N16" s="7">
-        <v>161223</v>
+        <v>243463</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,49 +3607,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7">
-        <v>123060</v>
+        <v>79176</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="I17" s="7">
-        <v>120403</v>
+        <v>82047</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="N17" s="7">
-        <v>243463</v>
+        <v>161223</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,49 +3711,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>343</v>
+        <v>669</v>
       </c>
       <c r="D19" s="7">
-        <v>243392</v>
+        <v>468840</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
-        <v>333</v>
+        <v>628</v>
       </c>
       <c r="I19" s="7">
-        <v>232341</v>
+        <v>435678</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
-        <v>676</v>
+        <v>1297</v>
       </c>
       <c r="N19" s="7">
-        <v>475733</v>
+        <v>904518</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,49 +3762,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>669</v>
+        <v>343</v>
       </c>
       <c r="D20" s="7">
-        <v>468840</v>
+        <v>243392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
-        <v>628</v>
+        <v>333</v>
       </c>
       <c r="I20" s="7">
-        <v>435678</v>
+        <v>232341</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
-        <v>1297</v>
+        <v>676</v>
       </c>
       <c r="N20" s="7">
-        <v>904518</v>
+        <v>475733</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,6 +3856,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3854,8 +3881,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07950020-4F78-45C4-BEB5-7CF07FC0390B}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1EE09B-386F-45EE-806E-7563AAA5F6DC}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3871,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3972,49 +3999,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>10410</v>
+        <v>15164</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>11500</v>
+        <v>9347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>21910</v>
+        <v>24511</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,49 +4050,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>15164</v>
+        <v>10410</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>9347</v>
+        <v>11500</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
       </c>
       <c r="N5" s="7">
-        <v>24511</v>
+        <v>21910</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,49 +4154,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D7" s="7">
-        <v>36089</v>
+        <v>72188</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I7" s="7">
-        <v>28016</v>
+        <v>75877</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="N7" s="7">
-        <v>64105</v>
+        <v>148065</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,49 +4205,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>72188</v>
+        <v>36089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>75877</v>
+        <v>28016</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="N8" s="7">
-        <v>148065</v>
+        <v>64105</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,49 +4309,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="D10" s="7">
-        <v>65900</v>
+        <v>144106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="I10" s="7">
-        <v>63703</v>
+        <v>129615</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
-        <v>206</v>
+        <v>416</v>
       </c>
       <c r="N10" s="7">
-        <v>129603</v>
+        <v>273721</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,49 +4360,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="D11" s="7">
-        <v>144106</v>
+        <v>65900</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="I11" s="7">
-        <v>129615</v>
+        <v>63703</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
-        <v>416</v>
+        <v>206</v>
       </c>
       <c r="N11" s="7">
-        <v>273721</v>
+        <v>129603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,55 +4458,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D13" s="7">
-        <v>55366</v>
+        <v>87715</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="I13" s="7">
-        <v>47532</v>
+        <v>89039</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M13" s="7">
         <v>281</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M13" s="7">
-        <v>161</v>
-      </c>
       <c r="N13" s="7">
-        <v>102897</v>
+        <v>176755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,49 +4515,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D14" s="7">
-        <v>87715</v>
+        <v>55366</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="I14" s="7">
-        <v>89039</v>
+        <v>47532</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
-        <v>281</v>
+        <v>161</v>
       </c>
       <c r="N14" s="7">
-        <v>176755</v>
+        <v>102897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,55 +4613,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="D16" s="7">
-        <v>68144</v>
+        <v>116819</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="I16" s="7">
-        <v>75370</v>
+        <v>117278</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="N16" s="7">
-        <v>143514</v>
+        <v>234097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,49 +4670,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="D17" s="7">
-        <v>116819</v>
+        <v>68144</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="I17" s="7">
-        <v>117278</v>
+        <v>75370</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
-        <v>320</v>
+        <v>201</v>
       </c>
       <c r="N17" s="7">
-        <v>234097</v>
+        <v>143514</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,49 +4774,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>341</v>
+        <v>620</v>
       </c>
       <c r="D19" s="7">
-        <v>235909</v>
+        <v>435992</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
-        <v>345</v>
+        <v>629</v>
       </c>
       <c r="I19" s="7">
-        <v>226120</v>
+        <v>421157</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
-        <v>686</v>
+        <v>1249</v>
       </c>
       <c r="N19" s="7">
-        <v>462029</v>
+        <v>857149</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,49 +4825,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>620</v>
+        <v>341</v>
       </c>
       <c r="D20" s="7">
-        <v>435992</v>
+        <v>235909</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
-        <v>629</v>
+        <v>345</v>
       </c>
       <c r="I20" s="7">
-        <v>421157</v>
+        <v>226120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
-        <v>1249</v>
+        <v>686</v>
       </c>
       <c r="N20" s="7">
-        <v>857149</v>
+        <v>462029</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,6 +4919,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4912,8 +4944,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBF9713-C9A7-4E46-AA53-0596B18CB86F}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB1522F-CE83-478D-A3BC-6023B8116567}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4929,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5033,46 +5065,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1938</v>
+        <v>2732</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>2620</v>
+        <v>1943</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>4557</v>
+        <v>4676</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,46 +5116,46 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2732</v>
+        <v>1938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>1943</v>
+        <v>2620</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>4676</v>
+        <v>4557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,49 +5217,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6505</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2908</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M7" s="7">
         <v>16</v>
       </c>
-      <c r="D7" s="7">
-        <v>9380</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H7" s="7">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9429</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M7" s="7">
-        <v>32</v>
-      </c>
       <c r="N7" s="7">
-        <v>18808</v>
+        <v>9413</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,49 +5268,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>6505</v>
+        <v>9380</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>2908</v>
+        <v>9429</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N8" s="7">
-        <v>9413</v>
+        <v>18808</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,25 +5372,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>38707</v>
+        <v>9911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>21956</v>
+        <v>7139</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>369</v>
@@ -5370,10 +5402,10 @@
         <v>371</v>
       </c>
       <c r="M10" s="7">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>60663</v>
+        <v>17050</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>372</v>
@@ -5391,49 +5423,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7">
-        <v>9911</v>
+        <v>38707</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>34</v>
+      </c>
+      <c r="I11" s="7">
+        <v>21956</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7139</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>93</v>
+      </c>
+      <c r="N11" s="7">
+        <v>60663</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="M11" s="7">
-        <v>27</v>
-      </c>
-      <c r="N11" s="7">
-        <v>17050</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,55 +5521,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>16651</v>
+        <v>13201</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13285</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="H13" s="7">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12036</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="7">
+        <v>36</v>
+      </c>
+      <c r="N13" s="7">
+        <v>26486</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="M13" s="7">
-        <v>41</v>
-      </c>
-      <c r="N13" s="7">
-        <v>28687</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,49 +5578,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>13201</v>
+        <v>16651</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7">
+        <v>12036</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="H14" s="7">
-        <v>19</v>
-      </c>
-      <c r="I14" s="7">
-        <v>13285</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>41</v>
+      </c>
+      <c r="N14" s="7">
+        <v>28687</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="M14" s="7">
-        <v>36</v>
-      </c>
-      <c r="N14" s="7">
-        <v>26486</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,55 +5676,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>20318</v>
+        <v>7083</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10846</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H16" s="7">
-        <v>27</v>
-      </c>
-      <c r="I16" s="7">
-        <v>17761</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>25</v>
+      </c>
+      <c r="N16" s="7">
+        <v>17929</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="M16" s="7">
-        <v>58</v>
-      </c>
-      <c r="N16" s="7">
-        <v>38079</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,49 +5733,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>7083</v>
+        <v>20318</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>27</v>
+      </c>
+      <c r="I17" s="7">
+        <v>17761</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="7">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7">
-        <v>10846</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>58</v>
+      </c>
+      <c r="N17" s="7">
+        <v>38079</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="M17" s="7">
-        <v>25</v>
-      </c>
-      <c r="N17" s="7">
-        <v>17929</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,49 +5837,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D19" s="7">
-        <v>86993</v>
+        <v>39432</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>54</v>
+      </c>
+      <c r="I19" s="7">
+        <v>36122</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="H19" s="7">
-        <v>99</v>
-      </c>
-      <c r="I19" s="7">
-        <v>63801</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>110</v>
+      </c>
+      <c r="N19" s="7">
+        <v>75554</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="M19" s="7">
-        <v>231</v>
-      </c>
-      <c r="N19" s="7">
-        <v>150794</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,49 +5888,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D20" s="7">
-        <v>39432</v>
+        <v>86993</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>99</v>
+      </c>
+      <c r="I20" s="7">
+        <v>63801</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="H20" s="7">
-        <v>54</v>
-      </c>
-      <c r="I20" s="7">
-        <v>36122</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>231</v>
+      </c>
+      <c r="N20" s="7">
+        <v>150794</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="M20" s="7">
-        <v>110</v>
-      </c>
-      <c r="N20" s="7">
-        <v>75554</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,6 +5982,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5986F15E-74AC-44F8-95E1-4B7A0D276247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDF71B8C-0061-467F-BFC0-A017263DA7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8E43DF2-681D-414B-AC37-CCE55296F13E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41C1DC45-ACD1-449F-85F8-71570180371D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,1273 +77,1279 @@
     <t>57,57%</t>
   </si>
   <si>
-    <t>38,21%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2016 (Tasa respuesta: 91,02%)</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>42,43%</t>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
   </si>
   <si>
     <t>28,05%</t>
   </si>
   <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
   </si>
   <si>
     <t>61,99%</t>
   </si>
   <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>38,01%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
   </si>
   <si>
     <t>61,35%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2015 (Tasa respuesta: 91,02%)</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>75,82%</t>
   </si>
   <si>
     <t>63,85%</t>
   </si>
   <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6F403E-3EC3-4551-B390-13BE3CF6CB8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973CA94A-A4F5-4659-B186-E59B731C3869}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2207,10 +2213,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>357</v>
@@ -2219,13 +2225,13 @@
         <v>228474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2246,13 @@
         <v>63269</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>86</v>
@@ -2255,13 +2261,13 @@
         <v>53525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -2270,13 +2276,13 @@
         <v>116795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2338,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2344,13 +2350,13 @@
         <v>86280</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -2359,13 +2365,13 @@
         <v>79524</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -2374,13 +2380,13 @@
         <v>165803</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2401,13 @@
         <v>47516</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -2410,13 +2416,13 @@
         <v>45053</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>153</v>
@@ -2425,13 +2431,13 @@
         <v>92570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,7 +2493,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2499,13 +2505,13 @@
         <v>117665</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>145</v>
@@ -2514,13 +2520,13 @@
         <v>111906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>319</v>
@@ -2529,13 +2535,13 @@
         <v>229570</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2556,13 @@
         <v>63641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
@@ -2565,13 +2571,13 @@
         <v>80637</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -2580,13 +2586,13 @@
         <v>144278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2660,13 @@
         <v>401602</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>557</v>
@@ -2669,13 +2675,13 @@
         <v>375587</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1160</v>
@@ -2684,13 +2690,13 @@
         <v>777188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2711,13 @@
         <v>222412</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>335</v>
@@ -2720,13 +2726,13 @@
         <v>222431</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>671</v>
@@ -2735,13 +2741,13 @@
         <v>444844</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2803,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BA9752-BE96-42C6-8DE2-0576BFDBB322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AEC40E-5448-44DA-B26E-2A7066DFB86C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2948,13 @@
         <v>13834</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -2957,13 +2963,13 @@
         <v>17092</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -2972,13 +2978,13 @@
         <v>30926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2999,13 @@
         <v>10620</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3008,13 +3014,13 @@
         <v>4411</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3023,13 +3029,13 @@
         <v>15031</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3103,13 @@
         <v>75842</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>98</v>
@@ -3112,13 +3118,13 @@
         <v>70491</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>205</v>
@@ -3127,13 +3133,13 @@
         <v>146333</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3154,13 @@
         <v>44407</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -3163,7 +3169,7 @@
         <v>38778</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>154</v>
@@ -3395,7 +3401,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3410,10 +3416,10 @@
         <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
@@ -3422,13 +3428,13 @@
         <v>94253</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>309</v>
@@ -3437,13 +3443,13 @@
         <v>199935</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3464,13 @@
         <v>51104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>75</v>
@@ -3473,13 +3479,13 @@
         <v>47810</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>152</v>
@@ -3488,13 +3494,13 @@
         <v>98914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,7 +3556,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3562,13 +3568,13 @@
         <v>123060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -3577,13 +3583,13 @@
         <v>120403</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>322</v>
@@ -3592,13 +3598,13 @@
         <v>243463</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3619,13 @@
         <v>79176</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
@@ -3628,13 +3634,13 @@
         <v>82047</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -3643,13 +3649,13 @@
         <v>161223</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3723,13 @@
         <v>468840</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>628</v>
@@ -3732,13 +3738,13 @@
         <v>435678</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>1297</v>
@@ -3747,13 +3753,13 @@
         <v>904518</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3774,13 @@
         <v>243392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>333</v>
@@ -3783,13 +3789,13 @@
         <v>232341</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>676</v>
@@ -3798,13 +3804,13 @@
         <v>475733</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1EE09B-386F-45EE-806E-7563AAA5F6DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23E1A67-BFEC-446F-B511-AE7AF5780938}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +4011,13 @@
         <v>15164</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4020,13 +4026,13 @@
         <v>9347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -4035,13 +4041,13 @@
         <v>24511</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4062,13 @@
         <v>10410</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -4071,13 +4077,13 @@
         <v>11500</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -4086,13 +4092,13 @@
         <v>21910</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4166,13 @@
         <v>72188</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>109</v>
@@ -4175,13 +4181,13 @@
         <v>75877</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>206</v>
@@ -4190,13 +4196,13 @@
         <v>148065</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4217,13 @@
         <v>36089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -4226,13 +4232,13 @@
         <v>28016</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -4241,13 +4247,13 @@
         <v>64105</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4321,13 @@
         <v>144106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>204</v>
@@ -4330,13 +4336,13 @@
         <v>129615</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>416</v>
@@ -4345,13 +4351,13 @@
         <v>273721</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4372,13 @@
         <v>65900</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>107</v>
@@ -4381,13 +4387,13 @@
         <v>63703</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>206</v>
@@ -4396,13 +4402,13 @@
         <v>129603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,7 +4464,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4470,13 +4476,13 @@
         <v>87715</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -4485,13 +4491,13 @@
         <v>89039</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>281</v>
@@ -4500,13 +4506,13 @@
         <v>176755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4527,13 @@
         <v>55366</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>79</v>
@@ -4536,13 +4542,13 @@
         <v>47532</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -4551,13 +4557,13 @@
         <v>102897</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4619,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4625,13 +4631,13 @@
         <v>116819</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -4640,13 +4646,13 @@
         <v>117278</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>320</v>
@@ -4655,13 +4661,13 @@
         <v>234097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4682,13 @@
         <v>68144</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -4691,13 +4697,13 @@
         <v>75370</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -4706,7 +4712,7 @@
         <v>143514</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>310</v>
@@ -4923,7 +4929,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB1522F-CE83-478D-A3BC-6023B8116567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3849D9-D2E4-4E94-B1B5-B128844F8AF4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5259,7 +5265,7 @@
         <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5280,13 @@
         <v>9380</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5289,13 +5295,13 @@
         <v>9429</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -5304,13 +5310,13 @@
         <v>18808</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5384,13 @@
         <v>9911</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -5393,13 +5399,13 @@
         <v>7139</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -5408,13 +5414,13 @@
         <v>17050</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,10 +5435,10 @@
         <v>38707</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>376</v>
@@ -5521,7 +5527,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5554,7 +5560,7 @@
         <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5563,13 +5569,13 @@
         <v>26486</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5590,13 @@
         <v>16651</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -5599,13 +5605,13 @@
         <v>12036</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5614,13 +5620,13 @@
         <v>28687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,7 +5682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5688,13 +5694,13 @@
         <v>7083</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -5703,13 +5709,13 @@
         <v>10846</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -5718,13 +5724,13 @@
         <v>17929</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5745,13 @@
         <v>20318</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -5754,13 +5760,13 @@
         <v>17761</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -5769,13 +5775,13 @@
         <v>38079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5849,13 @@
         <v>39432</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -5858,13 +5864,13 @@
         <v>36122</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -5873,13 +5879,13 @@
         <v>75554</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5900,13 @@
         <v>86993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -5909,13 +5915,13 @@
         <v>63801</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>231</v>
@@ -5924,13 +5930,13 @@
         <v>150794</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,7 +5992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDF71B8C-0061-467F-BFC0-A017263DA7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53D94B0F-8FBA-4A5F-A397-9CB6164C3373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41C1DC45-ACD1-449F-85F8-71570180371D}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{464DE625-240F-44BE-A7A4-6C5AD684EEED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
   <si>
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1288 +68,1075 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
   </si>
   <si>
     <t>67,14%</t>
   </si>
   <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>32,86%</t>
   </si>
   <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2016 (Tasa respuesta: 91,02%)</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2016 (Tasa respuesta: 91,02%)</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>67,62%</t>
   </si>
   <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
 </sst>
 </file>
@@ -1761,8 +1548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973CA94A-A4F5-4659-B186-E59B731C3869}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EB6906-5F0B-4D53-8FA2-DAE9688B19A4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1879,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7">
-        <v>12772</v>
+        <v>72330</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1894,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I4" s="7">
-        <v>15273</v>
+        <v>81011</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1909,10 +1696,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="N4" s="7">
-        <v>28045</v>
+        <v>153341</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1930,10 +1717,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D5" s="7">
-        <v>9414</v>
+        <v>43215</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1945,10 +1732,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="I5" s="7">
-        <v>4231</v>
+        <v>47986</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1960,10 +1747,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="N5" s="7">
-        <v>13645</v>
+        <v>91201</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1981,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D6" s="7">
-        <v>22186</v>
+        <v>115545</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1996,10 +1783,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="I6" s="7">
-        <v>19504</v>
+        <v>128997</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2011,10 +1798,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>358</v>
       </c>
       <c r="N6" s="7">
-        <v>41690</v>
+        <v>244542</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2034,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="D7" s="7">
-        <v>68239</v>
+        <v>111828</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2049,10 +1836,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="I7" s="7">
-        <v>57057</v>
+        <v>116647</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2064,10 +1851,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>186</v>
+        <v>357</v>
       </c>
       <c r="N7" s="7">
-        <v>125296</v>
+        <v>228474</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2085,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7">
-        <v>38572</v>
+        <v>53525</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2100,10 +1887,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="I8" s="7">
-        <v>38984</v>
+        <v>63269</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2115,10 +1902,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="N8" s="7">
-        <v>77556</v>
+        <v>116795</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2136,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="D9" s="7">
-        <v>106811</v>
+        <v>165353</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2151,10 +1938,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="I9" s="7">
-        <v>96041</v>
+        <v>179916</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2166,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>304</v>
+        <v>539</v>
       </c>
       <c r="N9" s="7">
-        <v>202852</v>
+        <v>345269</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2189,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="D10" s="7">
-        <v>116647</v>
+        <v>79524</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2204,10 +1991,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="I10" s="7">
-        <v>111828</v>
+        <v>86280</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2219,10 +2006,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>357</v>
+        <v>261</v>
       </c>
       <c r="N10" s="7">
-        <v>228474</v>
+        <v>165803</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2240,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D11" s="7">
-        <v>63269</v>
+        <v>45053</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2255,10 +2042,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I11" s="7">
-        <v>53525</v>
+        <v>47516</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2270,10 +2057,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="N11" s="7">
-        <v>116795</v>
+        <v>92570</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2291,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>179916</v>
+        <v>124577</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2306,10 +2093,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="I12" s="7">
-        <v>165353</v>
+        <v>133796</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2321,10 +2108,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>539</v>
+        <v>414</v>
       </c>
       <c r="N12" s="7">
-        <v>345269</v>
+        <v>258373</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2344,10 +2131,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D13" s="7">
-        <v>86280</v>
+        <v>111906</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2359,10 +2146,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="I13" s="7">
-        <v>79524</v>
+        <v>117665</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2374,10 +2161,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="N13" s="7">
-        <v>165803</v>
+        <v>229570</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2395,10 +2182,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D14" s="7">
-        <v>47516</v>
+        <v>80637</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2410,10 +2197,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7">
-        <v>45053</v>
+        <v>63641</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2425,10 +2212,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="N14" s="7">
-        <v>92570</v>
+        <v>144278</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2446,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>133796</v>
+        <v>192543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2461,10 +2248,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="I15" s="7">
-        <v>124577</v>
+        <v>181306</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2476,10 +2263,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="N15" s="7">
-        <v>258373</v>
+        <v>373848</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2493,55 +2280,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>174</v>
+        <v>557</v>
       </c>
       <c r="D16" s="7">
-        <v>117665</v>
+        <v>375587</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>603</v>
+      </c>
+      <c r="I16" s="7">
+        <v>401602</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>145</v>
-      </c>
-      <c r="I16" s="7">
-        <v>111906</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1160</v>
+      </c>
+      <c r="N16" s="7">
+        <v>777188</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>319</v>
-      </c>
-      <c r="N16" s="7">
-        <v>229570</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,49 +2337,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="D17" s="7">
-        <v>63641</v>
+        <v>222431</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>336</v>
+      </c>
+      <c r="I17" s="7">
+        <v>222412</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>107</v>
-      </c>
-      <c r="I17" s="7">
-        <v>80637</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>671</v>
+      </c>
+      <c r="N17" s="7">
+        <v>444844</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>201</v>
-      </c>
-      <c r="N17" s="7">
-        <v>144278</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,10 +2388,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>268</v>
+        <v>892</v>
       </c>
       <c r="D18" s="7">
-        <v>181306</v>
+        <v>598018</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2616,10 +2403,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>252</v>
+        <v>939</v>
       </c>
       <c r="I18" s="7">
-        <v>192543</v>
+        <v>624014</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2631,10 +2418,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>520</v>
+        <v>1831</v>
       </c>
       <c r="N18" s="7">
-        <v>373848</v>
+        <v>1222032</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2647,171 +2434,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>603</v>
-      </c>
-      <c r="D19" s="7">
-        <v>401602</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>557</v>
-      </c>
-      <c r="I19" s="7">
-        <v>375587</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1160</v>
-      </c>
-      <c r="N19" s="7">
-        <v>777188</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>336</v>
-      </c>
-      <c r="D20" s="7">
-        <v>222412</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>335</v>
-      </c>
-      <c r="I20" s="7">
-        <v>222431</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>671</v>
-      </c>
-      <c r="N20" s="7">
-        <v>444844</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>939</v>
-      </c>
-      <c r="D21" s="7">
-        <v>624014</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>892</v>
-      </c>
-      <c r="I21" s="7">
-        <v>598018</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1831</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1222032</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2824,8 +2455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AEC40E-5448-44DA-B26E-2A7066DFB86C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA52F7C-E1D2-4292-9532-147FAF6EDC4B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2841,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,49 +2573,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="D4" s="7">
-        <v>13834</v>
+        <v>87582</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="I4" s="7">
-        <v>17092</v>
+        <v>89677</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="N4" s="7">
-        <v>30926</v>
+        <v>177259</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +2624,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7">
-        <v>10620</v>
+        <v>43189</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="I5" s="7">
-        <v>4411</v>
+        <v>55027</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="N5" s="7">
-        <v>15031</v>
+        <v>98216</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="D6" s="7">
-        <v>24454</v>
+        <v>130771</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3059,10 +2690,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="I6" s="7">
-        <v>21503</v>
+        <v>144704</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3074,10 +2705,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>374</v>
       </c>
       <c r="N6" s="7">
-        <v>45957</v>
+        <v>275475</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3097,49 +2728,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="D7" s="7">
-        <v>75842</v>
+        <v>133440</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="I7" s="7">
-        <v>70491</v>
+        <v>150422</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>205</v>
+        <v>425</v>
       </c>
       <c r="N7" s="7">
-        <v>146333</v>
+        <v>283862</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,49 +2779,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7">
-        <v>44407</v>
+        <v>59294</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="I8" s="7">
-        <v>38778</v>
+        <v>58085</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="N8" s="7">
-        <v>83185</v>
+        <v>117379</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="D9" s="7">
-        <v>120249</v>
+        <v>192734</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3214,10 +2845,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="I9" s="7">
-        <v>109269</v>
+        <v>208507</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3229,10 +2860,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>322</v>
+        <v>599</v>
       </c>
       <c r="N9" s="7">
-        <v>229518</v>
+        <v>401241</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3252,49 +2883,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="D10" s="7">
-        <v>150422</v>
+        <v>94253</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="I10" s="7">
-        <v>133440</v>
+        <v>105682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>425</v>
+        <v>309</v>
       </c>
       <c r="N10" s="7">
-        <v>283862</v>
+        <v>199935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,49 +2934,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D11" s="7">
-        <v>58085</v>
+        <v>47810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I11" s="7">
-        <v>59294</v>
+        <v>51104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="N11" s="7">
-        <v>117379</v>
+        <v>98914</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="D12" s="7">
-        <v>208507</v>
+        <v>142063</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3369,10 +3000,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="I12" s="7">
-        <v>192734</v>
+        <v>156786</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3384,10 +3015,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>599</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>401241</v>
+        <v>298849</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3407,49 +3038,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>158</v>
+      </c>
+      <c r="D13" s="7">
+        <v>120403</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="7">
+        <v>164</v>
+      </c>
+      <c r="I13" s="7">
+        <v>123060</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="7">
-        <v>105682</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="7">
-        <v>146</v>
-      </c>
-      <c r="I13" s="7">
-        <v>94253</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="M13" s="7">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="N13" s="7">
-        <v>199935</v>
+        <v>243463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,49 +3089,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D14" s="7">
-        <v>51104</v>
+        <v>82047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7">
-        <v>47810</v>
+        <v>79176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="N14" s="7">
-        <v>98914</v>
+        <v>161223</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="D15" s="7">
-        <v>156786</v>
+        <v>202450</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3524,10 +3155,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I15" s="7">
-        <v>142063</v>
+        <v>202236</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3539,10 +3170,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>539</v>
       </c>
       <c r="N15" s="7">
-        <v>298849</v>
+        <v>404686</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3556,55 +3187,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>164</v>
+        <v>628</v>
       </c>
       <c r="D16" s="7">
-        <v>123060</v>
+        <v>435678</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>158</v>
+        <v>669</v>
       </c>
       <c r="I16" s="7">
-        <v>120403</v>
+        <v>468840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>322</v>
+        <v>1297</v>
       </c>
       <c r="N16" s="7">
-        <v>243463</v>
+        <v>904518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,49 +3244,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="D17" s="7">
-        <v>79176</v>
+        <v>232341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
-        <v>107</v>
+        <v>343</v>
       </c>
       <c r="I17" s="7">
-        <v>82047</v>
+        <v>243392</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
-        <v>217</v>
+        <v>676</v>
       </c>
       <c r="N17" s="7">
-        <v>161223</v>
+        <v>475733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>274</v>
+        <v>961</v>
       </c>
       <c r="D18" s="7">
-        <v>202236</v>
+        <v>668019</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3679,10 +3310,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>265</v>
+        <v>1012</v>
       </c>
       <c r="I18" s="7">
-        <v>202450</v>
+        <v>712232</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3694,10 +3325,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>539</v>
+        <v>1973</v>
       </c>
       <c r="N18" s="7">
-        <v>404686</v>
+        <v>1380251</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3710,171 +3341,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>669</v>
-      </c>
-      <c r="D19" s="7">
-        <v>468840</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>628</v>
-      </c>
-      <c r="I19" s="7">
-        <v>435678</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1297</v>
-      </c>
-      <c r="N19" s="7">
-        <v>904518</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>343</v>
-      </c>
-      <c r="D20" s="7">
-        <v>243392</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="7">
-        <v>333</v>
-      </c>
-      <c r="I20" s="7">
-        <v>232341</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>676</v>
-      </c>
-      <c r="N20" s="7">
-        <v>475733</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1012</v>
-      </c>
-      <c r="D21" s="7">
-        <v>712232</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>961</v>
-      </c>
-      <c r="I21" s="7">
-        <v>668019</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1973</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1380251</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3887,8 +3362,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23E1A67-BFEC-446F-B511-AE7AF5780938}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD15505B-F741-406F-9165-A9315C7B4BE6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3904,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,49 +3480,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="D4" s="7">
-        <v>15164</v>
+        <v>85224</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="I4" s="7">
-        <v>9347</v>
+        <v>87351</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="N4" s="7">
-        <v>24511</v>
+        <v>172576</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +3531,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7">
-        <v>10410</v>
+        <v>39516</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I5" s="7">
-        <v>11500</v>
+        <v>46500</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="N5" s="7">
-        <v>21910</v>
+        <v>86015</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>124740</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4122,10 +3597,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="I6" s="7">
-        <v>20847</v>
+        <v>133851</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4137,10 +3612,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>350</v>
       </c>
       <c r="N6" s="7">
-        <v>46421</v>
+        <v>258591</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4160,49 +3635,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="D7" s="7">
-        <v>72188</v>
+        <v>129615</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="I7" s="7">
-        <v>75877</v>
+        <v>144106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
-        <v>206</v>
+        <v>416</v>
       </c>
       <c r="N7" s="7">
-        <v>148065</v>
+        <v>273721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,49 +3686,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="D8" s="7">
-        <v>36089</v>
+        <v>63703</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="I8" s="7">
-        <v>28016</v>
+        <v>65900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="N8" s="7">
-        <v>64105</v>
+        <v>129603</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="D9" s="7">
-        <v>108277</v>
+        <v>193318</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4277,10 +3752,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="I9" s="7">
-        <v>103893</v>
+        <v>210006</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4292,10 +3767,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>298</v>
+        <v>622</v>
       </c>
       <c r="N9" s="7">
-        <v>212170</v>
+        <v>403324</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4315,49 +3790,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7">
-        <v>144106</v>
+        <v>89039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="I10" s="7">
-        <v>129615</v>
+        <v>87715</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="N10" s="7">
-        <v>273721</v>
+        <v>176755</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,49 +3841,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D11" s="7">
-        <v>65900</v>
+        <v>47532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="I11" s="7">
-        <v>63703</v>
+        <v>55366</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="N11" s="7">
-        <v>129603</v>
+        <v>102897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>210006</v>
+        <v>136571</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4432,10 +3907,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>193318</v>
+        <v>143081</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4447,10 +3922,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>622</v>
+        <v>442</v>
       </c>
       <c r="N12" s="7">
-        <v>403324</v>
+        <v>279652</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4470,49 +3945,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="D13" s="7">
-        <v>87715</v>
+        <v>117278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="H13" s="7">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I13" s="7">
-        <v>89039</v>
+        <v>116819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="M13" s="7">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="N13" s="7">
-        <v>176755</v>
+        <v>234097</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,49 +3996,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D14" s="7">
-        <v>55366</v>
+        <v>75370</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I14" s="7">
-        <v>47532</v>
+        <v>68144</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="N14" s="7">
-        <v>102897</v>
+        <v>143514</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="D15" s="7">
-        <v>143081</v>
+        <v>192648</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4587,10 +4062,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="I15" s="7">
-        <v>136571</v>
+        <v>184963</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4602,10 +4077,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>442</v>
+        <v>521</v>
       </c>
       <c r="N15" s="7">
-        <v>279652</v>
+        <v>377611</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4619,55 +4094,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>162</v>
+        <v>629</v>
       </c>
       <c r="D16" s="7">
-        <v>116819</v>
+        <v>421157</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>158</v>
+        <v>620</v>
       </c>
       <c r="I16" s="7">
-        <v>117278</v>
+        <v>435992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
-        <v>320</v>
+        <v>1249</v>
       </c>
       <c r="N16" s="7">
-        <v>234097</v>
+        <v>857149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,49 +4151,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="D17" s="7">
-        <v>68144</v>
+        <v>226120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
-        <v>103</v>
+        <v>341</v>
       </c>
       <c r="I17" s="7">
-        <v>75370</v>
+        <v>235909</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
-        <v>201</v>
+        <v>686</v>
       </c>
       <c r="N17" s="7">
-        <v>143514</v>
+        <v>462029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,10 +4202,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>260</v>
+        <v>974</v>
       </c>
       <c r="D18" s="7">
-        <v>184963</v>
+        <v>647277</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4742,10 +4217,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>261</v>
+        <v>961</v>
       </c>
       <c r="I18" s="7">
-        <v>192648</v>
+        <v>671901</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4757,10 +4232,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>521</v>
+        <v>1935</v>
       </c>
       <c r="N18" s="7">
-        <v>377611</v>
+        <v>1319178</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4773,171 +4248,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>620</v>
-      </c>
-      <c r="D19" s="7">
-        <v>435992</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="7">
-        <v>629</v>
-      </c>
-      <c r="I19" s="7">
-        <v>421157</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1249</v>
-      </c>
-      <c r="N19" s="7">
-        <v>857149</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>341</v>
-      </c>
-      <c r="D20" s="7">
-        <v>235909</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H20" s="7">
-        <v>345</v>
-      </c>
-      <c r="I20" s="7">
-        <v>226120</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M20" s="7">
-        <v>686</v>
-      </c>
-      <c r="N20" s="7">
-        <v>462029</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>961</v>
-      </c>
-      <c r="D21" s="7">
-        <v>671901</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>974</v>
-      </c>
-      <c r="I21" s="7">
-        <v>647277</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1935</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1319178</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4950,8 +4269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3849D9-D2E4-4E94-B1B5-B128844F8AF4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B4D4B6-6D98-4B9F-A50B-B769555A0A5C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4967,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,49 +4387,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>2732</v>
+        <v>4958</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>1943</v>
+        <v>9980</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>4676</v>
+        <v>14938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,49 +4438,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>1938</v>
+        <v>12096</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>2620</v>
+        <v>11686</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>4557</v>
+        <v>23782</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,10 +4489,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>4670</v>
+        <v>17054</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5185,10 +4504,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>4563</v>
+        <v>21666</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5200,10 +4519,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N6" s="7">
-        <v>9233</v>
+        <v>38720</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5223,49 +4542,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>6505</v>
+        <v>7085</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>2908</v>
+        <v>10141</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>9413</v>
+        <v>17226</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,49 +4593,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7">
-        <v>9380</v>
+        <v>21890</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I8" s="7">
-        <v>9429</v>
+        <v>39595</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="N8" s="7">
-        <v>18808</v>
+        <v>61485</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,10 +4644,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7">
-        <v>15885</v>
+        <v>28975</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5340,10 +4659,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>12337</v>
+        <v>49736</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5355,10 +4674,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="N9" s="7">
-        <v>28221</v>
+        <v>78711</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5378,49 +4697,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>9911</v>
+        <v>14288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>7139</v>
+        <v>14534</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>17050</v>
+        <v>28823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,49 +4748,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>38707</v>
+        <v>11948</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>21956</v>
+        <v>17146</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="N11" s="7">
-        <v>60663</v>
+        <v>29094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,10 +4799,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>48618</v>
+        <v>26236</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5495,10 +4814,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>29095</v>
+        <v>31680</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5510,10 +4829,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="N12" s="7">
-        <v>77713</v>
+        <v>57917</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5533,49 +4852,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>13201</v>
+        <v>10824</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>13285</v>
+        <v>7490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>26486</v>
+        <v>18313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,49 +4903,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>16651</v>
+        <v>17225</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>12036</v>
+        <v>21020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N14" s="7">
-        <v>28687</v>
+        <v>38246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>29852</v>
+        <v>28049</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5650,10 +4969,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I15" s="7">
-        <v>25321</v>
+        <v>28510</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5665,10 +4984,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N15" s="7">
-        <v>55173</v>
+        <v>56559</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5682,55 +5001,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7">
-        <v>7083</v>
+        <v>37155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>137</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="I16" s="7">
-        <v>10846</v>
+        <v>42144</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N16" s="7">
-        <v>17929</v>
+        <v>79300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,49 +5058,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D17" s="7">
-        <v>20318</v>
+        <v>63159</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I17" s="7">
-        <v>17761</v>
+        <v>89448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="N17" s="7">
-        <v>38079</v>
+        <v>152606</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D18" s="7">
-        <v>27401</v>
+        <v>100314</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5805,10 +5124,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="I18" s="7">
-        <v>28607</v>
+        <v>131592</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5820,10 +5139,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="N18" s="7">
-        <v>56008</v>
+        <v>231906</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5836,171 +5155,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>56</v>
-      </c>
-      <c r="D19" s="7">
-        <v>39432</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H19" s="7">
-        <v>54</v>
-      </c>
-      <c r="I19" s="7">
-        <v>36122</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M19" s="7">
-        <v>110</v>
-      </c>
-      <c r="N19" s="7">
-        <v>75554</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>132</v>
-      </c>
-      <c r="D20" s="7">
-        <v>86993</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H20" s="7">
-        <v>99</v>
-      </c>
-      <c r="I20" s="7">
-        <v>63801</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="M20" s="7">
-        <v>231</v>
-      </c>
-      <c r="N20" s="7">
-        <v>150794</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>188</v>
-      </c>
-      <c r="D21" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>153</v>
-      </c>
-      <c r="I21" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>341</v>
-      </c>
-      <c r="N21" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
